--- a/DDF/Phase2.1/TY_12/InvoiceSplitOnlyRepandPB/Testdata.xlsx
+++ b/DDF/Phase2.1/TY_12/InvoiceSplitOnlyRepandPB/Testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">TC_TD </t>
   </si>
@@ -30,10 +30,22 @@
     <t>TC_007</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>Please enter the invoice split count less than 7</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>Boolean 1</t>
+  </si>
+  <si>
+    <t>Bollean 0</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>TC_003 TC_005 TC_006</t>
   </si>
 </sst>
 </file>
@@ -352,18 +364,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,18 +385,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
